--- a/static/download/admin/Reporte General de Ventas.xlsx
+++ b/static/download/admin/Reporte General de Ventas.xlsx
@@ -25,7 +25,7 @@
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-10-13 0:00:00 AL DIA 2014-10-27 23:59:59</t>
+    <t>DEL DIA 2014-09-28 0:00:00 AL DIA 2014-10-27 23:59:59</t>
   </si>
   <si>
     <t>Tarifa</t>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -598,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>703</v>
+        <v>883</v>
       </c>
       <c r="E13" s="3">
-        <v>1406</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -609,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="4">
-        <v>4094</v>
+        <v>4138</v>
       </c>
       <c r="E14" s="3">
-        <v>12282</v>
+        <v>12414</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -620,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>5004</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>13989</v>
+        <v>15082</v>
       </c>
     </row>
   </sheetData>

--- a/static/download/admin/Reporte General de Ventas.xlsx
+++ b/static/download/admin/Reporte General de Ventas.xlsx
@@ -25,7 +25,7 @@
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-09-28 0:00:00 AL DIA 2014-10-27 23:59:59</t>
+    <t>DEL DIA 2014-09-29 0:00:00 AL DIA 2014-10-27 23:59:59</t>
   </si>
   <si>
     <t>Tarifa</t>

--- a/static/download/admin/Reporte General de Ventas.xlsx
+++ b/static/download/admin/Reporte General de Ventas.xlsx
@@ -25,7 +25,7 @@
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-09-29 0:00:00 AL DIA 2014-10-27 23:59:59</t>
+    <t>DEL DIA 2014-10-13 0:00:00 AL DIA 2014-10-27 23:59:59</t>
   </si>
   <si>
     <t>Tarifa</t>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -598,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>883</v>
+        <v>703</v>
       </c>
       <c r="E13" s="3">
-        <v>1766</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -609,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="4">
-        <v>4138</v>
+        <v>4094</v>
       </c>
       <c r="E14" s="3">
-        <v>12414</v>
+        <v>12282</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -620,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
-        <v>875</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>5369</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>15082</v>
+        <v>13989</v>
       </c>
     </row>
   </sheetData>

--- a/static/download/admin/Reporte General de Ventas.xlsx
+++ b/static/download/admin/Reporte General de Ventas.xlsx
@@ -25,7 +25,7 @@
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-10-21 0:00:00 AL DIA 2014-10-21 23:59:59</t>
+    <t>DEL DIA 2014-10-28 0:00:00 AL DIA 2014-10-28 23:59:59</t>
   </si>
   <si>
     <t>Tarifa</t>
@@ -573,35 +573,35 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>522</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="4">
-        <v>197</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>562</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/static/download/admin/Reporte General de Ventas.xlsx
+++ b/static/download/admin/Reporte General de Ventas.xlsx
@@ -19,13 +19,13 @@
     <t>SERVICIO SECA S.A DE C.V</t>
   </si>
   <si>
-    <t>Fecha: 2014-11-19</t>
+    <t>Fecha: 2014-11-20</t>
   </si>
   <si>
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-11-19 0:00:00 AL DIA 2014-11-19 23:59:59</t>
+    <t>DEL DIA 2014-11-20 0:00:00 AL DIA 2014-11-20 23:59:59</t>
   </si>
   <si>
     <t>Tarifa</t>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reporte de ventas" displayName="Reporte de ventas" ref="C10:E11" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reporte de ventas" displayName="Reporte de ventas" ref="C10:E12" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" name="Column2" dataDxfId="1"/>
@@ -520,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:F15"/>
+  <dimension ref="A4:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,32 +576,43 @@
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>60</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
-        <v>180</v>
+      <c r="D16" s="3">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +621,7 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
